--- a/result/topk_mom/evaluation.xlsx
+++ b/result/topk_mom/evaluation.xlsx
@@ -14,30 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>TopkMom</t>
   </si>
   <si>
-    <t>0.8x国债+0.2x沪深300</t>
-  </si>
-  <si>
-    <t>0.9x国债+0.1x沪深300</t>
-  </si>
-  <si>
-    <t>中债-国债总财富(总值)指数</t>
-  </si>
-  <si>
-    <t>中债-信用债总财富(总值)指数</t>
-  </si>
-  <si>
-    <t>沪深300指数(全收益)</t>
-  </si>
-  <si>
-    <t>上证50(全收益)</t>
-  </si>
-  <si>
-    <t>创业板指(全收益)</t>
+    <t>000395.OF</t>
+  </si>
+  <si>
+    <t>004089.OF</t>
+  </si>
+  <si>
+    <t>005410.OF</t>
+  </si>
+  <si>
+    <t>006884.OF</t>
+  </si>
+  <si>
+    <t>007948.OF</t>
+  </si>
+  <si>
+    <t>008081.OF</t>
+  </si>
+  <si>
+    <t>008993.OF</t>
+  </si>
+  <si>
+    <t>010482.OF</t>
+  </si>
+  <si>
+    <t>011658.OF</t>
+  </si>
+  <si>
+    <t>013814.OF</t>
+  </si>
+  <si>
+    <t>470030.OF</t>
+  </si>
+  <si>
+    <t>472007.OF</t>
+  </si>
+  <si>
+    <t>000696.OF</t>
+  </si>
+  <si>
+    <t>000697.OF</t>
+  </si>
+  <si>
+    <t>000925.OF</t>
+  </si>
+  <si>
+    <t>001050.OF</t>
+  </si>
+  <si>
+    <t>001490.OF</t>
+  </si>
+  <si>
+    <t>001541.OF</t>
+  </si>
+  <si>
+    <t>001685.OF</t>
+  </si>
+  <si>
+    <t>001725.OF</t>
+  </si>
+  <si>
+    <t>001726.OF</t>
+  </si>
+  <si>
+    <t>005802.OF</t>
+  </si>
+  <si>
+    <t>007523.OF</t>
+  </si>
+  <si>
+    <t>009550.OF</t>
+  </si>
+  <si>
+    <t>011122.OF</t>
+  </si>
+  <si>
+    <t>011418.OF</t>
   </si>
   <si>
     <t>累计收益率</t>
@@ -70,49 +127,133 @@
     <t>sortino比率</t>
   </si>
   <si>
-    <t>IR(0.8x国债+0.2x沪深300)</t>
-  </si>
-  <si>
-    <t>IR(0.9x国债+0.1x沪深300)</t>
-  </si>
-  <si>
-    <t>20150612-20150826</t>
-  </si>
-  <si>
-    <t>20150612-20151231</t>
-  </si>
-  <si>
-    <t>20150608-20150826</t>
-  </si>
-  <si>
-    <t>20150608-20151231</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>20150608-20150825</t>
-  </si>
-  <si>
-    <t>20150608-20151218</t>
-  </si>
-  <si>
-    <t>20150225-20150409</t>
-  </si>
-  <si>
-    <t>20150225-20150512</t>
-  </si>
-  <si>
-    <t>20150302-20150331</t>
-  </si>
-  <si>
-    <t>20150302-20150414</t>
-  </si>
-  <si>
-    <t>20150603-20150915</t>
-  </si>
-  <si>
-    <t>20150603-20151231</t>
+    <t>20171110-20181029</t>
+  </si>
+  <si>
+    <t>20171110-20190905</t>
+  </si>
+  <si>
+    <t>20161019-20161220</t>
+  </si>
+  <si>
+    <t>20161024-20180309</t>
+  </si>
+  <si>
+    <t>20190509-20190911</t>
+  </si>
+  <si>
+    <t>20180123-20190401</t>
+  </si>
+  <si>
+    <t>20180116-20180619</t>
+  </si>
+  <si>
+    <t>20160831-20171221</t>
+  </si>
+  <si>
+    <t>20170315-20170525</t>
+  </si>
+  <si>
+    <t>20170315-20171114</t>
+  </si>
+  <si>
+    <t>20161227-20170104</t>
+  </si>
+  <si>
+    <t>20170103-20170327</t>
+  </si>
+  <si>
+    <t>20160531-20160805</t>
+  </si>
+  <si>
+    <t>20160531-20170109</t>
+  </si>
+  <si>
+    <t>20160225-20160415</t>
+  </si>
+  <si>
+    <t>20160226-20160722</t>
+  </si>
+  <si>
+    <t>20160504-20160505</t>
+  </si>
+  <si>
+    <t>20160307-20160421</t>
+  </si>
+  <si>
+    <t>20160114-20160125</t>
+  </si>
+  <si>
+    <t>20160114-20160127</t>
+  </si>
+  <si>
+    <t>20171113-20181018</t>
+  </si>
+  <si>
+    <t>20171113-20200707</t>
+  </si>
+  <si>
+    <t>20160104-20190103</t>
+  </si>
+  <si>
+    <t>20160104-20200703</t>
+  </si>
+  <si>
+    <t>20171110-20190103</t>
+  </si>
+  <si>
+    <t>20171110-20200702</t>
+  </si>
+  <si>
+    <t>20161122-20181018</t>
+  </si>
+  <si>
+    <t>20161122-20191231</t>
+  </si>
+  <si>
+    <t>20171110-20200304</t>
+  </si>
+  <si>
+    <t>20171113-20190103</t>
+  </si>
+  <si>
+    <t>20171113-20191231</t>
+  </si>
+  <si>
+    <t>20170503-20180612</t>
+  </si>
+  <si>
+    <t>20170503-20191205</t>
+  </si>
+  <si>
+    <t>20161115-20171024</t>
+  </si>
+  <si>
+    <t>20161115-20190220</t>
+  </si>
+  <si>
+    <t>20171113-20181029</t>
+  </si>
+  <si>
+    <t>20171113-20200211</t>
+  </si>
+  <si>
+    <t>20160127-20160913</t>
+  </si>
+  <si>
+    <t>20160202-20161111</t>
+  </si>
+  <si>
+    <t>20160725-20160817</t>
+  </si>
+  <si>
+    <t>20170105-20170314</t>
+  </si>
+  <si>
+    <t>20160217-20160316</t>
+  </si>
+  <si>
+    <t>20160223-20160322</t>
   </si>
 </sst>
 </file>
@@ -470,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,382 +642,1037 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B2">
-        <v>0.08888161098443703</v>
+        <v>-0.1477077964569196</v>
       </c>
       <c r="C2">
-        <v>7.562604098229397</v>
-      </c>
-      <c r="D2">
-        <v>7.986092933527988</v>
-      </c>
-      <c r="E2">
-        <v>8.409634499179997</v>
-      </c>
-      <c r="F2">
-        <v>9.26617443399782</v>
-      </c>
-      <c r="G2">
-        <v>4.176615348345636</v>
-      </c>
-      <c r="H2">
-        <v>-6.872291268823294</v>
-      </c>
-      <c r="I2">
-        <v>89.47619053016555</v>
+        <v>0.4534069815428809</v>
+      </c>
+      <c r="O2">
+        <v>-1.090782491285869</v>
+      </c>
+      <c r="P2">
+        <v>-24.49100187663675</v>
+      </c>
+      <c r="Q2">
+        <v>-21.45358245610769</v>
+      </c>
+      <c r="R2">
+        <v>4.341596365543876</v>
+      </c>
+      <c r="S2">
+        <v>-4.741336259475215</v>
+      </c>
+      <c r="T2">
+        <v>-11.08605469493897</v>
+      </c>
+      <c r="W2">
+        <v>-6.153620757006129</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1">
+        <v>2017</v>
       </c>
       <c r="B3">
-        <v>0.08605875876082081</v>
+        <v>1.935226837537507</v>
       </c>
       <c r="C3">
-        <v>7.313951597320689</v>
+        <v>1.083528550605006</v>
       </c>
       <c r="D3">
-        <v>7.723022910406896</v>
-      </c>
-      <c r="E3">
-        <v>8.132094223493102</v>
-      </c>
-      <c r="F3">
-        <v>8.959215730964655</v>
-      </c>
-      <c r="G3">
-        <v>4.041381092630991</v>
-      </c>
-      <c r="H3">
-        <v>-6.661559680874863</v>
-      </c>
-      <c r="I3">
-        <v>85.67070479830909</v>
+        <v>1.18733422590318</v>
+      </c>
+      <c r="O3">
+        <v>4.48713347132792</v>
+      </c>
+      <c r="P3">
+        <v>-10.02245365414931</v>
+      </c>
+      <c r="Q3">
+        <v>17.15838080635181</v>
+      </c>
+      <c r="R3">
+        <v>-0.7240441062527303</v>
+      </c>
+      <c r="S3">
+        <v>11.6607816219086</v>
+      </c>
+      <c r="T3">
+        <v>15.97219575256419</v>
+      </c>
+      <c r="U3">
+        <v>30.29350097333099</v>
+      </c>
+      <c r="W3">
+        <v>16.30695976380514</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2018</v>
       </c>
       <c r="B4">
-        <v>0.08888161098443703</v>
+        <v>-3.47154200068206</v>
       </c>
       <c r="C4">
-        <v>7.562604098229397</v>
+        <v>5.477513384123545</v>
       </c>
       <c r="D4">
-        <v>7.986092933527988</v>
-      </c>
-      <c r="E4">
-        <v>8.409634499179997</v>
-      </c>
-      <c r="F4">
-        <v>9.26617443399782</v>
-      </c>
-      <c r="G4">
-        <v>4.176615348345636</v>
-      </c>
-      <c r="H4">
-        <v>-6.872291268823294</v>
-      </c>
-      <c r="I4">
-        <v>89.47619053016555</v>
+        <v>4.594547079717404</v>
+      </c>
+      <c r="O4">
+        <v>-37.76152123144861</v>
+      </c>
+      <c r="P4">
+        <v>-35.01267486661867</v>
+      </c>
+      <c r="Q4">
+        <v>-35.61366678728406</v>
+      </c>
+      <c r="R4">
+        <v>-23.14432097794299</v>
+      </c>
+      <c r="S4">
+        <v>-34.32700200079383</v>
+      </c>
+      <c r="T4">
+        <v>-34.85847878451066</v>
+      </c>
+      <c r="U4">
+        <v>-29.18878618123095</v>
+      </c>
+      <c r="V4">
+        <v>-20.824932914504</v>
+      </c>
+      <c r="W4">
+        <v>-31.52605029323358</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>2019</v>
       </c>
       <c r="B5">
-        <v>20.1675727609844</v>
+        <v>8.511056365112445</v>
       </c>
       <c r="C5">
-        <v>8.499959405726493</v>
+        <v>4.161013552326498</v>
       </c>
       <c r="D5">
-        <v>4.650111912872338</v>
+        <v>-1.338584472801985</v>
       </c>
       <c r="E5">
-        <v>2.256438516015061</v>
-      </c>
-      <c r="F5">
-        <v>1.024651251547694</v>
-      </c>
-      <c r="G5">
-        <v>39.34479775454434</v>
-      </c>
-      <c r="H5">
-        <v>40.16182018321594</v>
-      </c>
-      <c r="I5">
-        <v>50.75945707679724</v>
+        <v>0.1526172631198586</v>
+      </c>
+      <c r="O5">
+        <v>24.34866339315707</v>
+      </c>
+      <c r="P5">
+        <v>54.58776402076351</v>
+      </c>
+      <c r="Q5">
+        <v>36.25627103999136</v>
+      </c>
+      <c r="R5">
+        <v>38.39408655897938</v>
+      </c>
+      <c r="S5">
+        <v>53.16401693650814</v>
+      </c>
+      <c r="T5">
+        <v>63.28916003872771</v>
+      </c>
+      <c r="U5">
+        <v>17.47819963151651</v>
+      </c>
+      <c r="V5">
+        <v>35.58995368656923</v>
+      </c>
+      <c r="W5">
+        <v>53.38471802019087</v>
+      </c>
+      <c r="X5">
+        <v>31.40044183986506</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>2020</v>
       </c>
       <c r="B6">
-        <v>25.47873875018652</v>
+        <v>13.22974961039138</v>
       </c>
       <c r="C6">
-        <v>10.42943198530729</v>
+        <v>1.884662721329766</v>
       </c>
       <c r="D6">
-        <v>4.891835474149141</v>
+        <v>-2.543954192377085</v>
       </c>
       <c r="E6">
-        <v>1.888717060614336</v>
+        <v>-0.01020101463601319</v>
       </c>
       <c r="F6">
-        <v>0.6947808624723092</v>
+        <v>3.27917163095528</v>
       </c>
       <c r="G6">
-        <v>42.86088493493451</v>
+        <v>2.614637891135296</v>
       </c>
       <c r="H6">
-        <v>43.7960007079443</v>
-      </c>
-      <c r="I6">
-        <v>54.82826850747895</v>
+        <v>2.070901215336018</v>
+      </c>
+      <c r="O6">
+        <v>100.189466647408</v>
+      </c>
+      <c r="P6">
+        <v>62.45216820392798</v>
+      </c>
+      <c r="Q6">
+        <v>62.57378641046903</v>
+      </c>
+      <c r="R6">
+        <v>41.96490323430326</v>
+      </c>
+      <c r="S6">
+        <v>97.03708976452438</v>
+      </c>
+      <c r="T6">
+        <v>50.62803057275451</v>
+      </c>
+      <c r="U6">
+        <v>46.29784637022058</v>
+      </c>
+      <c r="V6">
+        <v>65.04085515890978</v>
+      </c>
+      <c r="W6">
+        <v>62.99311473998459</v>
+      </c>
+      <c r="X6">
+        <v>54.70487298513862</v>
+      </c>
+      <c r="Y6">
+        <v>79.55652786771266</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B7">
+        <v>19.95629890406125</v>
+      </c>
+      <c r="C7">
+        <v>13.1694468832309</v>
+      </c>
+      <c r="D7">
+        <v>1.750000000000007</v>
+      </c>
+      <c r="E7">
+        <v>1.649999999999996</v>
+      </c>
+      <c r="F7">
+        <v>7.069999999999999</v>
+      </c>
+      <c r="G7">
+        <v>3.330000000000011</v>
+      </c>
+      <c r="H7">
+        <v>2.190000000000003</v>
+      </c>
+      <c r="I7">
+        <v>1.079999999999992</v>
+      </c>
+      <c r="J7">
+        <v>0.4499999999999948</v>
+      </c>
+      <c r="M7">
+        <v>0.5200000000000093</v>
+      </c>
+      <c r="N7">
+        <v>0.7476821852257842</v>
+      </c>
+      <c r="O7">
+        <v>57.60563380281691</v>
+      </c>
+      <c r="P7">
+        <v>10.49547149706978</v>
+      </c>
+      <c r="Q7">
+        <v>30.09855951478393</v>
+      </c>
+      <c r="R7">
+        <v>54.15525114155253</v>
+      </c>
+      <c r="S7">
+        <v>105.6695992179864</v>
+      </c>
+      <c r="T7">
+        <v>62.61306532663318</v>
+      </c>
+      <c r="U7">
+        <v>58.9</v>
+      </c>
+      <c r="V7">
+        <v>136.2</v>
+      </c>
+      <c r="W7">
+        <v>83.10139165009942</v>
+      </c>
+      <c r="X7">
+        <v>69.92</v>
+      </c>
+      <c r="Y7">
+        <v>81.17000000000002</v>
+      </c>
+      <c r="Z7">
+        <v>14.19999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>3.8363941145372</v>
+      </c>
+      <c r="C8">
+        <v>2.592682338056718</v>
+      </c>
+      <c r="D8">
+        <v>0.4475621007171249</v>
+      </c>
+      <c r="E8">
+        <v>0.6239701918795193</v>
+      </c>
+      <c r="F8">
+        <v>3.85595375510448</v>
+      </c>
+      <c r="G8">
+        <v>2.707494889251305</v>
+      </c>
+      <c r="H8">
+        <v>2.097449233506943</v>
+      </c>
+      <c r="I8">
+        <v>1.474005621024377</v>
+      </c>
+      <c r="J8">
+        <v>2.869026243784822</v>
+      </c>
+      <c r="M8">
+        <v>1.4466328293538</v>
+      </c>
+      <c r="N8">
+        <v>4.259672297884998</v>
+      </c>
+      <c r="O8">
+        <v>9.869440083611591</v>
+      </c>
+      <c r="P8">
+        <v>2.08638455943404</v>
+      </c>
+      <c r="Q8">
+        <v>5.594812584750986</v>
+      </c>
+      <c r="R8">
+        <v>9.36741037541513</v>
+      </c>
+      <c r="S8">
+        <v>16.0897334854559</v>
+      </c>
+      <c r="T8">
+        <v>10.58273620260726</v>
+      </c>
+      <c r="U8">
+        <v>11.41121471129305</v>
+      </c>
+      <c r="V8">
+        <v>26.38442278632805</v>
+      </c>
+      <c r="W8">
+        <v>13.33133263180746</v>
+      </c>
+      <c r="X8">
+        <v>22.51203235670829</v>
+      </c>
+      <c r="Y8">
+        <v>53.96735746259373</v>
+      </c>
+      <c r="Z8">
+        <v>35.18161833104421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="B9">
+        <v>4.626236935383593</v>
+      </c>
+      <c r="C9">
+        <v>1.01131901287925</v>
+      </c>
+      <c r="D9">
+        <v>3.419800424912981</v>
+      </c>
+      <c r="E9">
+        <v>2.591150554301747</v>
+      </c>
+      <c r="F9">
+        <v>0.8458028232782968</v>
+      </c>
+      <c r="G9">
+        <v>0.8684073726206341</v>
+      </c>
+      <c r="H9">
+        <v>0.4778327382741417</v>
+      </c>
+      <c r="I9">
+        <v>0.7217729467522035</v>
+      </c>
+      <c r="J9">
+        <v>0.3733515804931464</v>
+      </c>
+      <c r="M9">
+        <v>0.922780114701704</v>
+      </c>
+      <c r="N9">
+        <v>0.4259705587825015</v>
+      </c>
+      <c r="O9">
+        <v>22.87547210798325</v>
+      </c>
+      <c r="P9">
+        <v>28.90554032539893</v>
+      </c>
+      <c r="Q9">
+        <v>26.24247320011971</v>
+      </c>
+      <c r="R9">
+        <v>21.8882527729299</v>
+      </c>
+      <c r="S9">
+        <v>22.24455247759761</v>
+      </c>
+      <c r="T9">
+        <v>22.61771807562787</v>
+      </c>
+      <c r="U9">
+        <v>21.1222611690783</v>
+      </c>
+      <c r="V9">
+        <v>18.95166866597007</v>
+      </c>
+      <c r="W9">
+        <v>23.7882081850073</v>
+      </c>
+      <c r="X9">
+        <v>18.27530658829112</v>
+      </c>
+      <c r="Y9">
+        <v>22.07594430525165</v>
+      </c>
+      <c r="Z9">
+        <v>12.53235681106657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>6.554609963707529</v>
+      </c>
+      <c r="C10">
+        <v>2.742073693230505</v>
+      </c>
+      <c r="D10">
+        <v>7.272558828979064</v>
+      </c>
+      <c r="E10">
+        <v>3.845785898785018</v>
+      </c>
+      <c r="F10">
+        <v>1.829211385907591</v>
+      </c>
+      <c r="G10">
+        <v>0.8238829116991326</v>
+      </c>
+      <c r="H10">
+        <v>0.8353808353808525</v>
+      </c>
+      <c r="I10">
+        <v>0.9169739858467154</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.3975747937580761</v>
+      </c>
+      <c r="N10">
+        <v>0.07970509116270315</v>
+      </c>
+      <c r="O10">
+        <v>43.45276872964169</v>
+      </c>
+      <c r="P10">
+        <v>55.51411827384124</v>
+      </c>
+      <c r="Q10">
+        <v>46.35669673837612</v>
+      </c>
+      <c r="R10">
+        <v>31.2807881773399</v>
+      </c>
+      <c r="S10">
+        <v>39.46917808219177</v>
+      </c>
+      <c r="T10">
+        <v>40.75743913435527</v>
+      </c>
+      <c r="U10">
+        <v>33.77001455604076</v>
+      </c>
+      <c r="V10">
+        <v>29.64190981432361</v>
+      </c>
+      <c r="W10">
+        <v>41.06280193236715</v>
+      </c>
+      <c r="X10">
+        <v>16.73318698862502</v>
+      </c>
+      <c r="Y10">
+        <v>15.23001751636397</v>
+      </c>
+      <c r="Z10">
+        <v>3.586354359024194</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" t="s">
+        <v>68</v>
+      </c>
+      <c r="V11" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:28">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>664</v>
+      </c>
+      <c r="C12">
+        <v>501</v>
+      </c>
+      <c r="D12">
+        <v>433</v>
+      </c>
+      <c r="E12">
+        <v>482</v>
+      </c>
+      <c r="F12">
+        <v>245</v>
+      </c>
+      <c r="G12">
+        <v>84</v>
+      </c>
+      <c r="H12">
+        <v>219</v>
+      </c>
+      <c r="I12">
+        <v>151</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>46</v>
+      </c>
+      <c r="N12">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>202</v>
-      </c>
-      <c r="C8">
-        <v>206</v>
-      </c>
-      <c r="D8">
-        <v>193</v>
-      </c>
-      <c r="E8">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>43</v>
-      </c>
-      <c r="G8">
-        <v>206</v>
-      </c>
-      <c r="H8">
-        <v>206</v>
-      </c>
-      <c r="I8">
-        <v>211</v>
+      <c r="O12">
+        <v>967</v>
+      </c>
+      <c r="P12">
+        <v>1642</v>
+      </c>
+      <c r="Q12">
+        <v>965</v>
+      </c>
+      <c r="R12">
+        <v>1134</v>
+      </c>
+      <c r="S12">
+        <v>845</v>
+      </c>
+      <c r="T12">
+        <v>778</v>
+      </c>
+      <c r="U12">
+        <v>954</v>
+      </c>
+      <c r="V12">
+        <v>834</v>
+      </c>
+      <c r="W12">
+        <v>820</v>
+      </c>
+      <c r="X12">
+        <v>281</v>
+      </c>
+      <c r="Y12">
+        <v>69</v>
+      </c>
+      <c r="Z12">
+        <v>36</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
+    <row r="13" spans="1:28">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" t="s">
+        <v>69</v>
+      </c>
+      <c r="V13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>-0.06996932198074228</v>
-      </c>
-      <c r="C10">
-        <v>0.713242556180845</v>
-      </c>
-      <c r="D10">
-        <v>1.394795130857094</v>
-      </c>
-      <c r="E10">
-        <v>3.062050326259036</v>
-      </c>
-      <c r="F10">
-        <v>7.578594729470666</v>
-      </c>
-      <c r="G10">
-        <v>0.06802954134088421</v>
-      </c>
-      <c r="H10">
-        <v>-0.2084634208381838</v>
-      </c>
-      <c r="I10">
-        <v>1.733194606033717</v>
+    <row r="14" spans="1:28">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0.5050203102735055</v>
+      </c>
+      <c r="C14">
+        <v>1.080345854826411</v>
+      </c>
+      <c r="D14">
+        <v>-0.3077393398989546</v>
+      </c>
+      <c r="E14">
+        <v>-0.338072212533126</v>
+      </c>
+      <c r="F14">
+        <v>2.785135230987858</v>
+      </c>
+      <c r="G14">
+        <v>1.390310465192495</v>
+      </c>
+      <c r="H14">
+        <v>1.250069697389607</v>
+      </c>
+      <c r="I14">
+        <v>-0.03600963174001059</v>
+      </c>
+      <c r="J14">
+        <v>3.665873476762396</v>
+      </c>
+      <c r="M14">
+        <v>-0.0578267640574848</v>
+      </c>
+      <c r="N14">
+        <v>6.477031188849972</v>
+      </c>
+      <c r="O14">
+        <v>0.3658680116984168</v>
+      </c>
+      <c r="P14">
+        <v>0.02028616397467568</v>
+      </c>
+      <c r="Q14">
+        <v>0.1560370072524865</v>
+      </c>
+      <c r="R14">
+        <v>0.3594336429530245</v>
+      </c>
+      <c r="S14">
+        <v>0.6558759908768678</v>
+      </c>
+      <c r="T14">
+        <v>0.4015743769906117</v>
+      </c>
+      <c r="U14">
+        <v>0.4692285408793404</v>
+      </c>
+      <c r="V14">
+        <v>1.313039601998239</v>
+      </c>
+      <c r="W14">
+        <v>0.4973591455009068</v>
+      </c>
+      <c r="X14">
+        <v>1.149743632525829</v>
+      </c>
+      <c r="Y14">
+        <v>2.376664801769414</v>
+      </c>
+      <c r="Z14">
+        <v>2.687551119370484</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>-0.05538393656207088</v>
-      </c>
-      <c r="C11">
-        <v>0.5812920567068737</v>
-      </c>
-      <c r="D11">
-        <v>1.325874588453381</v>
-      </c>
-      <c r="E11">
-        <v>3.658180902354113</v>
-      </c>
-      <c r="F11">
-        <v>11.17626754947119</v>
-      </c>
-      <c r="G11">
-        <v>0.06244875969156787</v>
-      </c>
-      <c r="H11">
-        <v>-0.1911652209554952</v>
-      </c>
-      <c r="I11">
-        <v>1.604574291101969</v>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0.3564450795646906</v>
+      </c>
+      <c r="C15">
+        <v>0.3984730583457128</v>
+      </c>
+      <c r="D15">
+        <v>-0.1447115730342346</v>
+      </c>
+      <c r="E15">
+        <v>-0.227783618956879</v>
+      </c>
+      <c r="F15">
+        <v>1.287891046463695</v>
+      </c>
+      <c r="G15">
+        <v>1.465436809558749</v>
+      </c>
+      <c r="H15">
+        <v>0.7150962753497472</v>
+      </c>
+      <c r="I15">
+        <v>-0.02834490932770604</v>
+      </c>
+      <c r="J15">
+        <v>13690.26243784823</v>
+      </c>
+      <c r="M15">
+        <v>-0.1341980218104184</v>
+      </c>
+      <c r="N15">
+        <v>34.58015344232485</v>
+      </c>
+      <c r="O15">
+        <v>0.1926096096367124</v>
+      </c>
+      <c r="P15">
+        <v>0.01056278152997697</v>
+      </c>
+      <c r="Q15">
+        <v>0.08833251805254971</v>
+      </c>
+      <c r="R15">
+        <v>0.2515085355253544</v>
+      </c>
+      <c r="S15">
+        <v>0.3696478424326357</v>
+      </c>
+      <c r="T15">
+        <v>0.222848002983361</v>
+      </c>
+      <c r="U15">
+        <v>0.2934907044761607</v>
+      </c>
+      <c r="V15">
+        <v>0.8394985003447166</v>
+      </c>
+      <c r="W15">
+        <v>0.2881270459475639</v>
+      </c>
+      <c r="X15">
+        <v>1.255702622622314</v>
+      </c>
+      <c r="Y15">
+        <v>3.444973908193438</v>
+      </c>
+      <c r="Z15">
+        <v>9.391341687172154</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>-1.000415528508291</v>
-      </c>
-      <c r="C12">
-        <v>9.778615041431276</v>
-      </c>
-      <c r="D12">
-        <v>19.50033854202462</v>
-      </c>
-      <c r="E12">
-        <v>50.51201092679799</v>
-      </c>
-      <c r="F12">
-        <v>125.8665118014382</v>
-      </c>
-      <c r="G12">
-        <v>0.9421607766511378</v>
-      </c>
-      <c r="H12">
-        <v>-3.124403870693624</v>
-      </c>
-      <c r="I12">
-        <v>25.98364464543313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.0929015964451832</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>-0.01627055374023187</v>
-      </c>
-      <c r="E13">
-        <v>-0.01611111757509018</v>
-      </c>
-      <c r="F13">
-        <v>-0.03200744489697128</v>
-      </c>
-      <c r="G13">
-        <v>0.01724947923528115</v>
-      </c>
-      <c r="H13">
-        <v>0.07029632641529072</v>
-      </c>
-      <c r="I13">
-        <v>-0.2852204668101029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.07636490019841799</v>
-      </c>
-      <c r="C14">
-        <v>0.01627055374023187</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>-0.01594492023132452</v>
-      </c>
-      <c r="F14">
-        <v>-0.04506705527534053</v>
-      </c>
-      <c r="G14">
-        <v>0.01715009162425946</v>
-      </c>
-      <c r="H14">
-        <v>0.06493996157588218</v>
-      </c>
-      <c r="I14">
-        <v>-0.2687735584106136</v>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>7.546433900717394</v>
+      </c>
+      <c r="C16">
+        <v>21.1366997450142</v>
+      </c>
+      <c r="D16">
+        <v>-3.034954059304311</v>
+      </c>
+      <c r="E16">
+        <v>-3.480197023611281</v>
+      </c>
+      <c r="F16">
+        <v>42.9241825222851</v>
+      </c>
+      <c r="G16">
+        <v>22.2740192064569</v>
+      </c>
+      <c r="H16">
+        <v>16.71240136257409</v>
+      </c>
+      <c r="I16">
+        <v>-0.5339180380679276</v>
+      </c>
+      <c r="J16">
+        <v>224.2092828112795</v>
+      </c>
+      <c r="M16">
+        <v>-0.570472517368552</v>
+      </c>
+      <c r="N16">
+        <v>137.53670868406</v>
+      </c>
+      <c r="O16">
+        <v>5.42157050139391</v>
+      </c>
+      <c r="P16">
+        <v>0.3132416739649458</v>
+      </c>
+      <c r="Q16">
+        <v>2.41450933917831</v>
+      </c>
+      <c r="R16">
+        <v>5.264435349763938</v>
+      </c>
+      <c r="S16">
+        <v>9.972802848763223</v>
+      </c>
+      <c r="T16">
+        <v>6.169172365003981</v>
+      </c>
+      <c r="U16">
+        <v>7.193265417555485</v>
+      </c>
+      <c r="V16">
+        <v>21.83629443255488</v>
+      </c>
+      <c r="W16">
+        <v>7.980228600726512</v>
+      </c>
+      <c r="X16">
+        <v>19.24444046439017</v>
+      </c>
+      <c r="Y16">
+        <v>37.09866780342433</v>
+      </c>
+      <c r="Z16">
+        <v>57.99815744253966</v>
       </c>
     </row>
   </sheetData>

--- a/result/topk_mom/evaluation.xlsx
+++ b/result/topk_mom/evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>TopkMom</t>
   </si>
@@ -142,25 +142,25 @@
     <t>20190509-20190911</t>
   </si>
   <si>
-    <t>20180123-20190401</t>
+    <t>20190509-20210107</t>
   </si>
   <si>
     <t>20180116-20180619</t>
   </si>
   <si>
-    <t>20160831-20171221</t>
+    <t>20180116-20190918</t>
   </si>
   <si>
     <t>20170315-20170525</t>
   </si>
   <si>
-    <t>20170315-20171114</t>
-  </si>
-  <si>
-    <t>20161227-20170104</t>
-  </si>
-  <si>
-    <t>20170103-20170327</t>
+    <t>20170315-20171115</t>
+  </si>
+  <si>
+    <t>20171218-20180320</t>
+  </si>
+  <si>
+    <t>20171222-20180410</t>
   </si>
   <si>
     <t>20160531-20160805</t>
@@ -169,22 +169,40 @@
     <t>20160531-20170109</t>
   </si>
   <si>
-    <t>20160225-20160415</t>
+    <t>20170727-20170811</t>
   </si>
   <si>
     <t>20160226-20160722</t>
   </si>
   <si>
-    <t>20160504-20160505</t>
-  </si>
-  <si>
-    <t>20160307-20160421</t>
-  </si>
-  <si>
-    <t>20160114-20160125</t>
-  </si>
-  <si>
-    <t>20160114-20160127</t>
+    <t>20161121-20161124</t>
+  </si>
+  <si>
+    <t>20161123-20170303</t>
+  </si>
+  <si>
+    <t>20160419-20160428</t>
+  </si>
+  <si>
+    <t>20160420-20160506</t>
+  </si>
+  <si>
+    <t>20160310-20160311</t>
+  </si>
+  <si>
+    <t>20160310-20160314</t>
+  </si>
+  <si>
+    <t>20161018-20161031</t>
+  </si>
+  <si>
+    <t>20170105-20170330</t>
+  </si>
+  <si>
+    <t>20160804-20160817</t>
+  </si>
+  <si>
+    <t>20160324-20160510</t>
   </si>
   <si>
     <t>20171113-20181018</t>
@@ -238,22 +256,34 @@
     <t>20171113-20200211</t>
   </si>
   <si>
-    <t>20160127-20160913</t>
+    <t>20181026-20181130</t>
   </si>
   <si>
     <t>20160202-20161111</t>
   </si>
   <si>
-    <t>20160725-20160817</t>
-  </si>
-  <si>
-    <t>20170105-20170314</t>
-  </si>
-  <si>
-    <t>20160217-20160316</t>
-  </si>
-  <si>
-    <t>20160223-20160322</t>
+    <t>20170718-20180309</t>
+  </si>
+  <si>
+    <t>20170718-20180605</t>
+  </si>
+  <si>
+    <t>20160727-20170208</t>
+  </si>
+  <si>
+    <t>20160727-20170619</t>
+  </si>
+  <si>
+    <t>20160606-20160725</t>
+  </si>
+  <si>
+    <t>20160311-20160516</t>
+  </si>
+  <si>
+    <t>20160229-20160421</t>
+  </si>
+  <si>
+    <t>20160301-20160826</t>
   </si>
 </sst>
 </file>
@@ -611,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -918,761 +948,937 @@
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
+      <c r="A7" s="1">
+        <v>2021</v>
       </c>
       <c r="B7">
-        <v>19.95629890406125</v>
+        <v>7.365801243219927</v>
       </c>
       <c r="C7">
-        <v>13.1694468832309</v>
+        <v>3.703248593128405</v>
       </c>
       <c r="D7">
-        <v>1.750000000000007</v>
+        <v>3.640885574933939</v>
       </c>
       <c r="E7">
-        <v>1.649999999999996</v>
+        <v>0.7448475009912414</v>
       </c>
       <c r="F7">
-        <v>7.069999999999999</v>
+        <v>4.458872165044347</v>
       </c>
       <c r="G7">
-        <v>3.330000000000011</v>
+        <v>-0.1605740498143882</v>
       </c>
       <c r="H7">
-        <v>2.190000000000003</v>
+        <v>2.934330735711188</v>
       </c>
       <c r="I7">
-        <v>1.079999999999992</v>
+        <v>2.904949497160758</v>
       </c>
       <c r="J7">
-        <v>0.4499999999999948</v>
+        <v>1.745281938543597</v>
       </c>
       <c r="M7">
-        <v>0.5200000000000093</v>
+        <v>1.176352579096807</v>
       </c>
       <c r="N7">
-        <v>0.7476821852257842</v>
+        <v>3.573288350776527</v>
       </c>
       <c r="O7">
-        <v>57.60563380281691</v>
+        <v>33.07593394992827</v>
       </c>
       <c r="P7">
-        <v>10.49547149706978</v>
+        <v>11.92483193987597</v>
       </c>
       <c r="Q7">
-        <v>30.09855951478393</v>
+        <v>7.018865035317967</v>
       </c>
       <c r="R7">
-        <v>54.15525114155253</v>
+        <v>18.30280290253878</v>
       </c>
       <c r="S7">
-        <v>105.6695992179864</v>
+        <v>13.53642891885778</v>
       </c>
       <c r="T7">
-        <v>62.61306532663318</v>
+        <v>16.96939772536301</v>
       </c>
       <c r="U7">
-        <v>58.9</v>
+        <v>-5.932560999124171</v>
       </c>
       <c r="V7">
-        <v>136.2</v>
+        <v>25.66108291424798</v>
       </c>
       <c r="W7">
-        <v>83.10139165009942</v>
+        <v>9.247926503718906</v>
       </c>
       <c r="X7">
-        <v>69.92</v>
+        <v>26.59123258482634</v>
       </c>
       <c r="Y7">
-        <v>81.17000000000002</v>
+        <v>-12.0336958680461</v>
       </c>
       <c r="Z7">
-        <v>14.19999999999999</v>
+        <v>-5.207495894323467</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>3.8363941145372</v>
+        <v>28.46554720380443</v>
       </c>
       <c r="C8">
-        <v>2.592682338056718</v>
+        <v>17.20807726075504</v>
       </c>
       <c r="D8">
-        <v>0.4475621007171249</v>
+        <v>5.319999999999991</v>
       </c>
       <c r="E8">
-        <v>0.6239701918795193</v>
+        <v>2.380000000000004</v>
       </c>
       <c r="F8">
-        <v>3.85595375510448</v>
+        <v>11.67</v>
       </c>
       <c r="G8">
-        <v>2.707494889251305</v>
+        <v>3.170000000000006</v>
       </c>
       <c r="H8">
-        <v>2.097449233506943</v>
+        <v>5.079999999999996</v>
       </c>
       <c r="I8">
-        <v>1.474005621024377</v>
+        <v>3.909999999999991</v>
       </c>
       <c r="J8">
-        <v>2.869026243784822</v>
+        <v>2.140000000000009</v>
+      </c>
+      <c r="K8">
+        <v>1.170000000000004</v>
+      </c>
+      <c r="L8">
+        <v>0.9800000000000031</v>
       </c>
       <c r="M8">
-        <v>1.4466328293538</v>
+        <v>1.659999999999995</v>
       </c>
       <c r="N8">
-        <v>4.259672297884998</v>
+        <v>4.216927524673508</v>
       </c>
       <c r="O8">
-        <v>9.869440083611591</v>
+        <v>107.6056338028169</v>
       </c>
       <c r="P8">
-        <v>2.08638455943404</v>
+        <v>23.17527970165156</v>
       </c>
       <c r="Q8">
-        <v>5.594812584750986</v>
+        <v>38.89310083396514</v>
       </c>
       <c r="R8">
-        <v>9.36741037541513</v>
+        <v>81.2785388127854</v>
       </c>
       <c r="S8">
-        <v>16.0897334854559</v>
+        <v>132.4535679374389</v>
       </c>
       <c r="T8">
-        <v>10.58273620260726</v>
+        <v>89.14572864321606</v>
       </c>
       <c r="U8">
-        <v>11.41121471129305</v>
+        <v>49.80000000000003</v>
       </c>
       <c r="V8">
-        <v>26.38442278632805</v>
+        <v>194.4</v>
       </c>
       <c r="W8">
-        <v>13.33133263180746</v>
+        <v>99.40357852882701</v>
       </c>
       <c r="X8">
-        <v>22.51203235670829</v>
+        <v>113.3</v>
       </c>
       <c r="Y8">
-        <v>53.96735746259373</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="Z8">
-        <v>35.18161833104421</v>
+        <v>8.460000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>-1.049999999999995</v>
+      </c>
+      <c r="AB8">
+        <v>-3.129999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>4.626236935383593</v>
+        <v>4.415272303480156</v>
       </c>
       <c r="C9">
-        <v>1.01131901287925</v>
+        <v>2.77656863512814</v>
       </c>
       <c r="D9">
-        <v>3.419800424912981</v>
+        <v>1.074632769298067</v>
       </c>
       <c r="E9">
-        <v>2.591150554301747</v>
+        <v>0.6563766867599075</v>
       </c>
       <c r="F9">
-        <v>0.8458028232782968</v>
+        <v>4.065456392027955</v>
       </c>
       <c r="G9">
-        <v>0.8684073726206341</v>
+        <v>1.434907075458458</v>
       </c>
       <c r="H9">
-        <v>0.4778327382741417</v>
+        <v>2.498498222780099</v>
       </c>
       <c r="I9">
-        <v>0.7217729467522035</v>
+        <v>2.283974563013969</v>
       </c>
       <c r="J9">
-        <v>0.3733515804931464</v>
+        <v>1.903367014623836</v>
+      </c>
+      <c r="K9">
+        <v>2.777388748063614</v>
+      </c>
+      <c r="L9">
+        <v>4.74612567431818</v>
       </c>
       <c r="M9">
-        <v>0.922780114701704</v>
+        <v>1.249920358178658</v>
       </c>
       <c r="N9">
-        <v>0.4259705587825015</v>
+        <v>3.680237217502369</v>
       </c>
       <c r="O9">
-        <v>22.87547210798325</v>
+        <v>13.42763190075271</v>
       </c>
       <c r="P9">
-        <v>28.90554032539893</v>
+        <v>3.660648034666347</v>
       </c>
       <c r="Q9">
-        <v>26.24247320011971</v>
+        <v>5.830346702508815</v>
       </c>
       <c r="R9">
-        <v>21.8882527729299</v>
+        <v>10.80536124772506</v>
       </c>
       <c r="S9">
-        <v>22.24455247759761</v>
+        <v>15.66110992470733</v>
       </c>
       <c r="T9">
-        <v>22.61771807562787</v>
+        <v>11.6202883459178</v>
       </c>
       <c r="U9">
-        <v>21.1222611690783</v>
+        <v>8.001757207833826</v>
       </c>
       <c r="V9">
-        <v>18.95166866597007</v>
+        <v>26.23359118729059</v>
       </c>
       <c r="W9">
-        <v>23.7882081850073</v>
+        <v>12.64173144810066</v>
       </c>
       <c r="X9">
-        <v>18.27530658829112</v>
+        <v>23.59906926673709</v>
       </c>
       <c r="Y9">
-        <v>22.07594430525165</v>
+        <v>22.26421070489901</v>
       </c>
       <c r="Z9">
-        <v>12.53235681106657</v>
+        <v>5.951515460370382</v>
+      </c>
+      <c r="AA9">
+        <v>-1.895467261589956</v>
+      </c>
+      <c r="AB9">
+        <v>-4.855595607523256</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>6.554609963707529</v>
+        <v>4.807974091025662</v>
       </c>
       <c r="C10">
-        <v>2.742073693230505</v>
+        <v>0.9778366480760504</v>
       </c>
       <c r="D10">
-        <v>7.272558828979064</v>
+        <v>3.075303720388945</v>
       </c>
       <c r="E10">
-        <v>3.845785898785018</v>
+        <v>2.515715335573779</v>
       </c>
       <c r="F10">
-        <v>1.829211385907591</v>
+        <v>0.7405385025642006</v>
       </c>
       <c r="G10">
-        <v>0.8238829116991326</v>
+        <v>1.72093783162733</v>
       </c>
       <c r="H10">
-        <v>0.8353808353808525</v>
+        <v>0.4204481086150589</v>
       </c>
       <c r="I10">
-        <v>0.9169739858467154</v>
+        <v>0.7448582073320327</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.836258259742686</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3751552166927632</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3141707394072259</v>
       </c>
       <c r="M10">
-        <v>0.3975747937580761</v>
+        <v>1.5590066869736</v>
       </c>
       <c r="N10">
-        <v>0.07970509116270315</v>
+        <v>0.8197484847848405</v>
       </c>
       <c r="O10">
-        <v>43.45276872964169</v>
+        <v>25.58697768561814</v>
       </c>
       <c r="P10">
-        <v>55.51411827384124</v>
+        <v>28.12703180595548</v>
       </c>
       <c r="Q10">
-        <v>46.35669673837612</v>
+        <v>25.7076959999545</v>
       </c>
       <c r="R10">
-        <v>31.2807881773399</v>
+        <v>20.93200581322295</v>
       </c>
       <c r="S10">
-        <v>39.46917808219177</v>
+        <v>22.54532545673478</v>
       </c>
       <c r="T10">
-        <v>40.75743913435527</v>
+        <v>22.45122548446692</v>
       </c>
       <c r="U10">
-        <v>33.77001455604076</v>
+        <v>22.94819769463135</v>
       </c>
       <c r="V10">
-        <v>29.64190981432361</v>
+        <v>19.87477103962696</v>
       </c>
       <c r="W10">
-        <v>41.06280193236715</v>
+        <v>24.95986755998723</v>
       </c>
       <c r="X10">
-        <v>16.73318698862502</v>
+        <v>21.7678230504947</v>
       </c>
       <c r="Y10">
-        <v>15.23001751636397</v>
+        <v>24.93170631200115</v>
       </c>
       <c r="Z10">
-        <v>3.586354359024194</v>
+        <v>19.31997971782767</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>16.12033666913394</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>16.12606386713641</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" t="s">
-        <v>63</v>
-      </c>
-      <c r="S11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" t="s">
-        <v>68</v>
-      </c>
-      <c r="V11" t="s">
-        <v>70</v>
-      </c>
-      <c r="W11" t="s">
-        <v>72</v>
-      </c>
-      <c r="X11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>78</v>
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>6.554609963707529</v>
+      </c>
+      <c r="C11">
+        <v>2.742073693230505</v>
+      </c>
+      <c r="D11">
+        <v>7.272558828979064</v>
+      </c>
+      <c r="E11">
+        <v>3.845785898785018</v>
+      </c>
+      <c r="F11">
+        <v>1.829211385907591</v>
+      </c>
+      <c r="G11">
+        <v>2.387494078635728</v>
+      </c>
+      <c r="H11">
+        <v>0.8353808353808525</v>
+      </c>
+      <c r="I11">
+        <v>1.224060437984139</v>
+      </c>
+      <c r="J11">
+        <v>1.872332169188967</v>
+      </c>
+      <c r="K11">
+        <v>0.1289938479857193</v>
+      </c>
+      <c r="L11">
+        <v>0.01984520738241496</v>
+      </c>
+      <c r="M11">
+        <v>1.081825334382366</v>
+      </c>
+      <c r="N11">
+        <v>0.6160766673186093</v>
+      </c>
+      <c r="O11">
+        <v>43.45276872964169</v>
+      </c>
+      <c r="P11">
+        <v>55.51411827384124</v>
+      </c>
+      <c r="Q11">
+        <v>46.35669673837612</v>
+      </c>
+      <c r="R11">
+        <v>31.2807881773399</v>
+      </c>
+      <c r="S11">
+        <v>39.46917808219177</v>
+      </c>
+      <c r="T11">
+        <v>40.75743913435527</v>
+      </c>
+      <c r="U11">
+        <v>33.77001455604076</v>
+      </c>
+      <c r="V11">
+        <v>29.64190981432361</v>
+      </c>
+      <c r="W11">
+        <v>41.06280193236715</v>
+      </c>
+      <c r="X11">
+        <v>21.94951289089833</v>
+      </c>
+      <c r="Y11">
+        <v>31.04525614518723</v>
+      </c>
+      <c r="Z11">
+        <v>23.03984333810349</v>
+      </c>
+      <c r="AA11">
+        <v>9.67072365317483</v>
+      </c>
+      <c r="AB11">
+        <v>11.21076233183857</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>664</v>
-      </c>
-      <c r="C12">
-        <v>501</v>
-      </c>
-      <c r="D12">
-        <v>433</v>
-      </c>
-      <c r="E12">
-        <v>482</v>
-      </c>
-      <c r="F12">
-        <v>245</v>
-      </c>
-      <c r="G12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z12" t="s">
         <v>84</v>
       </c>
-      <c r="H12">
-        <v>219</v>
-      </c>
-      <c r="I12">
-        <v>151</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>46</v>
-      </c>
-      <c r="N12">
-        <v>13</v>
-      </c>
-      <c r="O12">
-        <v>967</v>
-      </c>
-      <c r="P12">
-        <v>1642</v>
-      </c>
-      <c r="Q12">
-        <v>965</v>
-      </c>
-      <c r="R12">
-        <v>1134</v>
-      </c>
-      <c r="S12">
-        <v>845</v>
-      </c>
-      <c r="T12">
-        <v>778</v>
-      </c>
-      <c r="U12">
-        <v>954</v>
-      </c>
-      <c r="V12">
-        <v>834</v>
-      </c>
-      <c r="W12">
-        <v>820</v>
-      </c>
-      <c r="X12">
-        <v>281</v>
-      </c>
-      <c r="Y12">
-        <v>69</v>
-      </c>
-      <c r="Z12">
-        <v>36</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
+      <c r="AA12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>664</v>
+      </c>
+      <c r="C13">
+        <v>501</v>
+      </c>
+      <c r="D13">
+        <v>611</v>
+      </c>
+      <c r="E13">
+        <v>610</v>
+      </c>
+      <c r="F13">
+        <v>249</v>
+      </c>
+      <c r="G13">
+        <v>106</v>
+      </c>
+      <c r="H13">
+        <v>219</v>
+      </c>
+      <c r="I13">
+        <v>151</v>
+      </c>
+      <c r="J13">
+        <v>99</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>86</v>
+      </c>
+      <c r="N13">
         <v>50</v>
       </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S13" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13" t="s">
-        <v>67</v>
-      </c>
-      <c r="U13" t="s">
-        <v>69</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="O13">
+        <v>967</v>
+      </c>
+      <c r="P13">
+        <v>1642</v>
+      </c>
+      <c r="Q13">
+        <v>965</v>
+      </c>
+      <c r="R13">
+        <v>1134</v>
+      </c>
+      <c r="S13">
+        <v>845</v>
+      </c>
+      <c r="T13">
+        <v>778</v>
+      </c>
+      <c r="U13">
+        <v>954</v>
+      </c>
+      <c r="V13">
+        <v>834</v>
+      </c>
+      <c r="W13">
+        <v>820</v>
+      </c>
+      <c r="X13">
+        <v>281</v>
+      </c>
+      <c r="Y13">
+        <v>324</v>
+      </c>
+      <c r="Z13">
+        <v>324</v>
+      </c>
+      <c r="AA13">
         <v>71</v>
       </c>
-      <c r="W13" t="s">
-        <v>73</v>
-      </c>
-      <c r="X13" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>79</v>
+      <c r="AB13">
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>0.5050203102735055</v>
-      </c>
-      <c r="C14">
-        <v>1.080345854826411</v>
-      </c>
-      <c r="D14">
-        <v>-0.3077393398989546</v>
-      </c>
-      <c r="E14">
-        <v>-0.338072212533126</v>
-      </c>
-      <c r="F14">
-        <v>2.785135230987858</v>
-      </c>
-      <c r="G14">
-        <v>1.390310465192495</v>
-      </c>
-      <c r="H14">
-        <v>1.250069697389607</v>
-      </c>
-      <c r="I14">
-        <v>-0.03600963174001059</v>
-      </c>
-      <c r="J14">
-        <v>3.665873476762396</v>
-      </c>
-      <c r="M14">
-        <v>-0.0578267640574848</v>
-      </c>
-      <c r="N14">
-        <v>6.477031188849972</v>
-      </c>
-      <c r="O14">
-        <v>0.3658680116984168</v>
-      </c>
-      <c r="P14">
-        <v>0.02028616397467568</v>
-      </c>
-      <c r="Q14">
-        <v>0.1560370072524865</v>
-      </c>
-      <c r="R14">
-        <v>0.3594336429530245</v>
-      </c>
-      <c r="S14">
-        <v>0.6558759908768678</v>
-      </c>
-      <c r="T14">
-        <v>0.4015743769906117</v>
-      </c>
-      <c r="U14">
-        <v>0.4692285408793404</v>
-      </c>
-      <c r="V14">
-        <v>1.313039601998239</v>
-      </c>
-      <c r="W14">
-        <v>0.4973591455009068</v>
-      </c>
-      <c r="X14">
-        <v>1.149743632525829</v>
-      </c>
-      <c r="Y14">
-        <v>2.376664801769414</v>
-      </c>
-      <c r="Z14">
-        <v>2.687551119370484</v>
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>0.3564450795646906</v>
+        <v>0.6063284900125712</v>
       </c>
       <c r="C15">
-        <v>0.3984730583457128</v>
+        <v>1.305369460935538</v>
       </c>
       <c r="D15">
-        <v>-0.1447115730342346</v>
+        <v>-0.1383126475011666</v>
       </c>
       <c r="E15">
-        <v>-0.227783618956879</v>
+        <v>-0.3353279953863101</v>
       </c>
       <c r="F15">
-        <v>1.287891046463695</v>
+        <v>3.463844214344736</v>
       </c>
       <c r="G15">
-        <v>1.465436809558749</v>
+        <v>-0.03782190219490593</v>
       </c>
       <c r="H15">
-        <v>0.7150962753497472</v>
+        <v>2.374278239101668</v>
       </c>
       <c r="I15">
-        <v>-0.02834490932770604</v>
+        <v>1.052373885270246</v>
       </c>
       <c r="J15">
-        <v>13690.26243784823</v>
+        <v>0.2196559481156778</v>
+      </c>
+      <c r="K15">
+        <v>3.404053271588398</v>
+      </c>
+      <c r="L15">
+        <v>10.32907384391238</v>
       </c>
       <c r="M15">
-        <v>-0.1341980218104184</v>
+        <v>-0.1603993132161948</v>
       </c>
       <c r="N15">
-        <v>34.58015344232485</v>
+        <v>2.659317249423894</v>
       </c>
       <c r="O15">
-        <v>0.1926096096367124</v>
+        <v>0.4661584275978862</v>
       </c>
       <c r="P15">
-        <v>0.01056278152997697</v>
+        <v>0.07681721867598545</v>
       </c>
       <c r="Q15">
-        <v>0.08833251805254971</v>
+        <v>0.1684448835099081</v>
       </c>
       <c r="R15">
-        <v>0.2515085355253544</v>
+        <v>0.444549694653598</v>
       </c>
       <c r="S15">
-        <v>0.3696478424326357</v>
+        <v>0.6281145570698075</v>
       </c>
       <c r="T15">
-        <v>0.222848002983361</v>
+        <v>0.4507657399969358</v>
       </c>
       <c r="U15">
-        <v>0.2934907044761607</v>
+        <v>0.2833219829353566</v>
       </c>
       <c r="V15">
-        <v>0.8394985003447166</v>
+        <v>1.244465493032694</v>
       </c>
       <c r="W15">
-        <v>0.2881270459475639</v>
+        <v>0.4463840516348154</v>
       </c>
       <c r="X15">
-        <v>1.255702622622314</v>
+        <v>1.015212577491855</v>
       </c>
       <c r="Y15">
-        <v>3.444973908193438</v>
+        <v>0.8328402060024015</v>
       </c>
       <c r="Z15">
-        <v>9.391341687172154</v>
+        <v>0.2304087522093779</v>
+      </c>
+      <c r="AA15">
+        <v>-0.2106312211809567</v>
+      </c>
+      <c r="AB15">
+        <v>-0.394117017530459</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>0.4447599237222687</v>
+      </c>
+      <c r="C16">
+        <v>0.4655316467660509</v>
+      </c>
+      <c r="D16">
+        <v>-0.05848854465810899</v>
+      </c>
+      <c r="E16">
+        <v>-0.2193573432603936</v>
+      </c>
+      <c r="F16">
+        <v>1.402416456701347</v>
+      </c>
+      <c r="G16">
+        <v>-0.02726297787550888</v>
+      </c>
+      <c r="H16">
+        <v>1.195118045197213</v>
+      </c>
+      <c r="I16">
+        <v>0.6404181500138678</v>
+      </c>
+      <c r="J16">
+        <v>0.2154240998746308</v>
+      </c>
+      <c r="K16">
+        <v>9.895039678458748</v>
+      </c>
+      <c r="L16">
+        <v>162.7521645716346</v>
+      </c>
+      <c r="M16">
+        <v>-0.2311431610612058</v>
+      </c>
+      <c r="N16">
+        <v>3.538331347387783</v>
+      </c>
+      <c r="O16">
+        <v>0.2744958445658662</v>
+      </c>
+      <c r="P16">
+        <v>0.03892062433462136</v>
+      </c>
+      <c r="Q16">
+        <v>0.09341341523116872</v>
+      </c>
+      <c r="R16">
+        <v>0.2974775266920309</v>
+      </c>
+      <c r="S16">
+        <v>0.3587881667158415</v>
+      </c>
+      <c r="T16">
+        <v>0.248304695544958</v>
+      </c>
+      <c r="U16">
+        <v>0.1925299127145187</v>
+      </c>
+      <c r="V16">
+        <v>0.8344100599865134</v>
+      </c>
+      <c r="W16">
+        <v>0.271333269783312</v>
+      </c>
+      <c r="X16">
+        <v>1.006809066591818</v>
+      </c>
+      <c r="Y16">
+        <v>0.6688346755563943</v>
+      </c>
+      <c r="Z16">
+        <v>0.1932086114555872</v>
+      </c>
+      <c r="AA16">
+        <v>-0.3511042475141463</v>
+      </c>
+      <c r="AB16">
+        <v>-0.566914071317558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>7.546433900717394</v>
-      </c>
-      <c r="C16">
-        <v>21.1366997450142</v>
-      </c>
-      <c r="D16">
-        <v>-3.034954059304311</v>
-      </c>
-      <c r="E16">
-        <v>-3.480197023611281</v>
-      </c>
-      <c r="F16">
-        <v>42.9241825222851</v>
-      </c>
-      <c r="G16">
-        <v>22.2740192064569</v>
-      </c>
-      <c r="H16">
-        <v>16.71240136257409</v>
-      </c>
-      <c r="I16">
-        <v>-0.5339180380679276</v>
-      </c>
-      <c r="J16">
-        <v>224.2092828112795</v>
-      </c>
-      <c r="M16">
-        <v>-0.570472517368552</v>
-      </c>
-      <c r="N16">
-        <v>137.53670868406</v>
-      </c>
-      <c r="O16">
-        <v>5.42157050139391</v>
-      </c>
-      <c r="P16">
-        <v>0.3132416739649458</v>
-      </c>
-      <c r="Q16">
-        <v>2.41450933917831</v>
-      </c>
-      <c r="R16">
-        <v>5.264435349763938</v>
-      </c>
-      <c r="S16">
-        <v>9.972802848763223</v>
-      </c>
-      <c r="T16">
-        <v>6.169172365003981</v>
-      </c>
-      <c r="U16">
-        <v>7.193265417555485</v>
-      </c>
-      <c r="V16">
-        <v>21.83629443255488</v>
-      </c>
-      <c r="W16">
-        <v>7.980228600726512</v>
-      </c>
-      <c r="X16">
-        <v>19.24444046439017</v>
-      </c>
-      <c r="Y16">
-        <v>37.09866780342433</v>
-      </c>
-      <c r="Z16">
-        <v>57.99815744253966</v>
+      <c r="B17">
+        <v>9.151343801308199</v>
+      </c>
+      <c r="C17">
+        <v>25.89587611062996</v>
+      </c>
+      <c r="D17">
+        <v>-1.367317479299935</v>
+      </c>
+      <c r="E17">
+        <v>-3.339215630695973</v>
+      </c>
+      <c r="F17">
+        <v>53.6003835280373</v>
+      </c>
+      <c r="G17">
+        <v>-0.5453923157950462</v>
+      </c>
+      <c r="H17">
+        <v>31.78406446149964</v>
+      </c>
+      <c r="I17">
+        <v>13.4693742047959</v>
+      </c>
+      <c r="J17">
+        <v>3.17219217955813</v>
+      </c>
+      <c r="K17">
+        <v>57.37385597752343</v>
+      </c>
+      <c r="L17">
+        <v>317.2396528675841</v>
+      </c>
+      <c r="M17">
+        <v>-1.487603695175248</v>
+      </c>
+      <c r="N17">
+        <v>31.13266900128353</v>
+      </c>
+      <c r="O17">
+        <v>7.168221683160845</v>
+      </c>
+      <c r="P17">
+        <v>1.190117782569715</v>
+      </c>
+      <c r="Q17">
+        <v>2.586969524269463</v>
+      </c>
+      <c r="R17">
+        <v>6.487773474041217</v>
+      </c>
+      <c r="S17">
+        <v>9.525286223767438</v>
+      </c>
+      <c r="T17">
+        <v>6.957056209640879</v>
+      </c>
+      <c r="U17">
+        <v>4.344255237235701</v>
+      </c>
+      <c r="V17">
+        <v>20.47482094902328</v>
+      </c>
+      <c r="W17">
+        <v>7.063486733524537</v>
+      </c>
+      <c r="X17">
+        <v>16.44148349799578</v>
+      </c>
+      <c r="Y17">
+        <v>12.36887537040057</v>
+      </c>
+      <c r="Z17">
+        <v>3.583913936960711</v>
+      </c>
+      <c r="AA17">
+        <v>-3.515376363812378</v>
+      </c>
+      <c r="AB17">
+        <v>-6.378630078028279</v>
       </c>
     </row>
   </sheetData>

--- a/result/topk_mom/evaluation.xlsx
+++ b/result/topk_mom/evaluation.xlsx
@@ -130,7 +130,7 @@
     <t>20171110-20181029</t>
   </si>
   <si>
-    <t>20171110-20190905</t>
+    <t>20171110-20190906</t>
   </si>
   <si>
     <t>20161019-20161220</t>
@@ -735,7 +735,7 @@
         <v>2016</v>
       </c>
       <c r="B2">
-        <v>-0.1477077964569196</v>
+        <v>-0.1764590984603687</v>
       </c>
       <c r="C2">
         <v>0.4534069815428809</v>
@@ -767,7 +767,7 @@
         <v>2017</v>
       </c>
       <c r="B3">
-        <v>1.935226837537507</v>
+        <v>1.893044957579559</v>
       </c>
       <c r="C3">
         <v>1.083528550605006</v>
@@ -805,7 +805,7 @@
         <v>2018</v>
       </c>
       <c r="B4">
-        <v>-3.47154200068206</v>
+        <v>-3.503022884605334</v>
       </c>
       <c r="C4">
         <v>5.477513384123545</v>
@@ -846,7 +846,7 @@
         <v>2019</v>
       </c>
       <c r="B5">
-        <v>8.511056365112445</v>
+        <v>8.467771253307955</v>
       </c>
       <c r="C5">
         <v>4.161013552326498</v>
@@ -893,7 +893,7 @@
         <v>2020</v>
       </c>
       <c r="B6">
-        <v>13.22974961039138</v>
+        <v>13.13545815524904</v>
       </c>
       <c r="C6">
         <v>1.884662721329766</v>
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="B7">
-        <v>7.365801243219927</v>
+        <v>7.289169244858074</v>
       </c>
       <c r="C7">
         <v>3.703248593128405</v>
@@ -1026,7 +1026,7 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>28.46554720380443</v>
+        <v>28.09708728017304</v>
       </c>
       <c r="C8">
         <v>17.20807726075504</v>
@@ -1112,7 +1112,7 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>4.415272303480156</v>
+        <v>4.363555232530292</v>
       </c>
       <c r="C9">
         <v>2.77656863512814</v>
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>4.807974091025662</v>
+        <v>4.808098398429319</v>
       </c>
       <c r="C10">
         <v>0.9778366480760504</v>
@@ -1284,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>6.554609963707529</v>
+        <v>6.583639484494391</v>
       </c>
       <c r="C11">
         <v>2.742073693230505</v>
@@ -1456,7 +1456,7 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C13">
         <v>501</v>
@@ -1628,7 +1628,7 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>0.6063284900125712</v>
+        <v>0.5955567959645179</v>
       </c>
       <c r="C15">
         <v>1.305369460935538</v>
@@ -1714,7 +1714,7 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>0.4447599237222687</v>
+        <v>0.4349435817249994</v>
       </c>
       <c r="C16">
         <v>0.4655316467660509</v>
@@ -1800,7 +1800,7 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>9.151343801308199</v>
+        <v>8.983719761783686</v>
       </c>
       <c r="C17">
         <v>25.89587611062996</v>

--- a/result/topk_mom/evaluation.xlsx
+++ b/result/topk_mom/evaluation.xlsx
@@ -14,30 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>TopkMom</t>
   </si>
   <si>
-    <t>0.8x国债+0.2x沪深300</t>
-  </si>
-  <si>
-    <t>0.9x国债+0.1x沪深300</t>
-  </si>
-  <si>
-    <t>中债-国债总财富(总值)指数</t>
-  </si>
-  <si>
-    <t>中债-信用债总财富(总值)指数</t>
-  </si>
-  <si>
-    <t>沪深300指数(全收益)</t>
-  </si>
-  <si>
-    <t>上证50(全收益)</t>
-  </si>
-  <si>
-    <t>创业板指(全收益)</t>
+    <t>000395.OF</t>
+  </si>
+  <si>
+    <t>004089.OF</t>
+  </si>
+  <si>
+    <t>005410.OF</t>
+  </si>
+  <si>
+    <t>006884.OF</t>
+  </si>
+  <si>
+    <t>007948.OF</t>
+  </si>
+  <si>
+    <t>008081.OF</t>
+  </si>
+  <si>
+    <t>008993.OF</t>
+  </si>
+  <si>
+    <t>010482.OF</t>
+  </si>
+  <si>
+    <t>011658.OF</t>
+  </si>
+  <si>
+    <t>013814.OF</t>
+  </si>
+  <si>
+    <t>470030.OF</t>
+  </si>
+  <si>
+    <t>472007.OF</t>
+  </si>
+  <si>
+    <t>000696.OF</t>
+  </si>
+  <si>
+    <t>000697.OF</t>
+  </si>
+  <si>
+    <t>000925.OF</t>
+  </si>
+  <si>
+    <t>001050.OF</t>
+  </si>
+  <si>
+    <t>001490.OF</t>
+  </si>
+  <si>
+    <t>001541.OF</t>
+  </si>
+  <si>
+    <t>001685.OF</t>
+  </si>
+  <si>
+    <t>001725.OF</t>
+  </si>
+  <si>
+    <t>001726.OF</t>
+  </si>
+  <si>
+    <t>005802.OF</t>
+  </si>
+  <si>
+    <t>007523.OF</t>
+  </si>
+  <si>
+    <t>009550.OF</t>
+  </si>
+  <si>
+    <t>011122.OF</t>
+  </si>
+  <si>
+    <t>011418.OF</t>
   </si>
   <si>
     <t>累计收益率</t>
@@ -70,49 +127,163 @@
     <t>sortino比率</t>
   </si>
   <si>
-    <t>IR(0.8x国债+0.2x沪深300)</t>
-  </si>
-  <si>
-    <t>IR(0.9x国债+0.1x沪深300)</t>
-  </si>
-  <si>
-    <t>20150612-20150826</t>
-  </si>
-  <si>
-    <t>20150612-20151231</t>
-  </si>
-  <si>
-    <t>20150608-20150826</t>
-  </si>
-  <si>
-    <t>20150608-20151231</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>20150608-20150825</t>
-  </si>
-  <si>
-    <t>20150608-20151218</t>
-  </si>
-  <si>
-    <t>20150225-20150409</t>
-  </si>
-  <si>
-    <t>20150225-20150512</t>
-  </si>
-  <si>
-    <t>20150302-20150331</t>
-  </si>
-  <si>
-    <t>20150302-20150414</t>
-  </si>
-  <si>
-    <t>20150603-20150915</t>
-  </si>
-  <si>
-    <t>20150603-20151231</t>
+    <t>20171110-20181029</t>
+  </si>
+  <si>
+    <t>20171110-20190906</t>
+  </si>
+  <si>
+    <t>20161019-20161220</t>
+  </si>
+  <si>
+    <t>20161024-20180309</t>
+  </si>
+  <si>
+    <t>20190509-20190911</t>
+  </si>
+  <si>
+    <t>20190509-20210107</t>
+  </si>
+  <si>
+    <t>20180116-20180619</t>
+  </si>
+  <si>
+    <t>20180116-20190918</t>
+  </si>
+  <si>
+    <t>20170315-20170525</t>
+  </si>
+  <si>
+    <t>20170315-20171115</t>
+  </si>
+  <si>
+    <t>20171218-20180320</t>
+  </si>
+  <si>
+    <t>20171222-20180410</t>
+  </si>
+  <si>
+    <t>20160531-20160805</t>
+  </si>
+  <si>
+    <t>20160531-20170109</t>
+  </si>
+  <si>
+    <t>20170727-20170811</t>
+  </si>
+  <si>
+    <t>20160226-20160722</t>
+  </si>
+  <si>
+    <t>20161121-20161124</t>
+  </si>
+  <si>
+    <t>20161123-20170303</t>
+  </si>
+  <si>
+    <t>20160419-20160428</t>
+  </si>
+  <si>
+    <t>20160420-20160506</t>
+  </si>
+  <si>
+    <t>20160310-20160311</t>
+  </si>
+  <si>
+    <t>20160310-20160314</t>
+  </si>
+  <si>
+    <t>20161018-20161031</t>
+  </si>
+  <si>
+    <t>20170105-20170330</t>
+  </si>
+  <si>
+    <t>20160804-20160817</t>
+  </si>
+  <si>
+    <t>20160324-20160510</t>
+  </si>
+  <si>
+    <t>20171113-20181018</t>
+  </si>
+  <si>
+    <t>20171113-20200707</t>
+  </si>
+  <si>
+    <t>20160104-20190103</t>
+  </si>
+  <si>
+    <t>20160104-20200703</t>
+  </si>
+  <si>
+    <t>20171110-20190103</t>
+  </si>
+  <si>
+    <t>20171110-20200702</t>
+  </si>
+  <si>
+    <t>20161122-20181018</t>
+  </si>
+  <si>
+    <t>20161122-20191231</t>
+  </si>
+  <si>
+    <t>20171110-20200304</t>
+  </si>
+  <si>
+    <t>20171113-20190103</t>
+  </si>
+  <si>
+    <t>20171113-20191231</t>
+  </si>
+  <si>
+    <t>20170503-20180612</t>
+  </si>
+  <si>
+    <t>20170503-20191205</t>
+  </si>
+  <si>
+    <t>20161115-20171024</t>
+  </si>
+  <si>
+    <t>20161115-20190220</t>
+  </si>
+  <si>
+    <t>20171113-20181029</t>
+  </si>
+  <si>
+    <t>20171113-20200211</t>
+  </si>
+  <si>
+    <t>20181026-20181130</t>
+  </si>
+  <si>
+    <t>20160202-20161111</t>
+  </si>
+  <si>
+    <t>20170718-20180309</t>
+  </si>
+  <si>
+    <t>20170718-20180605</t>
+  </si>
+  <si>
+    <t>20160727-20170208</t>
+  </si>
+  <si>
+    <t>20160727-20170619</t>
+  </si>
+  <si>
+    <t>20160606-20160725</t>
+  </si>
+  <si>
+    <t>20160311-20160516</t>
+  </si>
+  <si>
+    <t>20160229-20160421</t>
+  </si>
+  <si>
+    <t>20160301-20160826</t>
   </si>
 </sst>
 </file>
@@ -470,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,382 +672,1213 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B2">
-        <v>0.08888161098443703</v>
+        <v>-0.1764590984603687</v>
       </c>
       <c r="C2">
-        <v>7.562604098229397</v>
-      </c>
-      <c r="D2">
-        <v>7.986092933527988</v>
-      </c>
-      <c r="E2">
-        <v>8.409634499179997</v>
-      </c>
-      <c r="F2">
-        <v>9.26617443399782</v>
-      </c>
-      <c r="G2">
-        <v>4.176615348345636</v>
-      </c>
-      <c r="H2">
-        <v>-6.872291268823294</v>
-      </c>
-      <c r="I2">
-        <v>89.47619053016555</v>
+        <v>0.4534069815428809</v>
+      </c>
+      <c r="O2">
+        <v>-1.090782491285869</v>
+      </c>
+      <c r="P2">
+        <v>-24.49100187663675</v>
+      </c>
+      <c r="Q2">
+        <v>-21.45358245610769</v>
+      </c>
+      <c r="R2">
+        <v>4.341596365543876</v>
+      </c>
+      <c r="S2">
+        <v>-4.741336259475215</v>
+      </c>
+      <c r="T2">
+        <v>-11.08605469493897</v>
+      </c>
+      <c r="W2">
+        <v>-6.153620757006129</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1">
+        <v>2017</v>
       </c>
       <c r="B3">
-        <v>0.08605875876082081</v>
+        <v>1.893044957579559</v>
       </c>
       <c r="C3">
-        <v>7.313951597320689</v>
+        <v>1.083528550605006</v>
       </c>
       <c r="D3">
-        <v>7.723022910406896</v>
-      </c>
-      <c r="E3">
-        <v>8.132094223493102</v>
-      </c>
-      <c r="F3">
-        <v>8.959215730964655</v>
-      </c>
-      <c r="G3">
-        <v>4.041381092630991</v>
-      </c>
-      <c r="H3">
-        <v>-6.661559680874863</v>
-      </c>
-      <c r="I3">
-        <v>85.67070479830909</v>
+        <v>1.18733422590318</v>
+      </c>
+      <c r="O3">
+        <v>4.48713347132792</v>
+      </c>
+      <c r="P3">
+        <v>-10.02245365414931</v>
+      </c>
+      <c r="Q3">
+        <v>17.15838080635181</v>
+      </c>
+      <c r="R3">
+        <v>-0.7240441062527303</v>
+      </c>
+      <c r="S3">
+        <v>11.6607816219086</v>
+      </c>
+      <c r="T3">
+        <v>15.97219575256419</v>
+      </c>
+      <c r="U3">
+        <v>30.29350097333099</v>
+      </c>
+      <c r="W3">
+        <v>16.30695976380514</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2018</v>
       </c>
       <c r="B4">
-        <v>0.08888161098443703</v>
+        <v>-3.503022884605334</v>
       </c>
       <c r="C4">
-        <v>7.562604098229397</v>
+        <v>5.477513384123545</v>
       </c>
       <c r="D4">
-        <v>7.986092933527988</v>
-      </c>
-      <c r="E4">
-        <v>8.409634499179997</v>
-      </c>
-      <c r="F4">
-        <v>9.26617443399782</v>
-      </c>
-      <c r="G4">
-        <v>4.176615348345636</v>
-      </c>
-      <c r="H4">
-        <v>-6.872291268823294</v>
-      </c>
-      <c r="I4">
-        <v>89.47619053016555</v>
+        <v>4.594547079717404</v>
+      </c>
+      <c r="O4">
+        <v>-37.76152123144861</v>
+      </c>
+      <c r="P4">
+        <v>-35.01267486661867</v>
+      </c>
+      <c r="Q4">
+        <v>-35.61366678728406</v>
+      </c>
+      <c r="R4">
+        <v>-23.14432097794299</v>
+      </c>
+      <c r="S4">
+        <v>-34.32700200079383</v>
+      </c>
+      <c r="T4">
+        <v>-34.85847878451066</v>
+      </c>
+      <c r="U4">
+        <v>-29.18878618123095</v>
+      </c>
+      <c r="V4">
+        <v>-20.824932914504</v>
+      </c>
+      <c r="W4">
+        <v>-31.52605029323358</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>2019</v>
       </c>
       <c r="B5">
-        <v>20.1675727609844</v>
+        <v>8.467771253307955</v>
       </c>
       <c r="C5">
-        <v>8.499959405726493</v>
+        <v>4.161013552326498</v>
       </c>
       <c r="D5">
-        <v>4.650111912872338</v>
+        <v>-1.338584472801985</v>
       </c>
       <c r="E5">
-        <v>2.256438516015061</v>
-      </c>
-      <c r="F5">
-        <v>1.024651251547694</v>
-      </c>
-      <c r="G5">
-        <v>39.34479775454434</v>
-      </c>
-      <c r="H5">
-        <v>40.16182018321594</v>
-      </c>
-      <c r="I5">
-        <v>50.75945707679724</v>
+        <v>0.1526172631198586</v>
+      </c>
+      <c r="O5">
+        <v>24.34866339315707</v>
+      </c>
+      <c r="P5">
+        <v>54.58776402076351</v>
+      </c>
+      <c r="Q5">
+        <v>36.25627103999136</v>
+      </c>
+      <c r="R5">
+        <v>38.39408655897938</v>
+      </c>
+      <c r="S5">
+        <v>53.16401693650814</v>
+      </c>
+      <c r="T5">
+        <v>63.28916003872771</v>
+      </c>
+      <c r="U5">
+        <v>17.47819963151651</v>
+      </c>
+      <c r="V5">
+        <v>35.58995368656923</v>
+      </c>
+      <c r="W5">
+        <v>53.38471802019087</v>
+      </c>
+      <c r="X5">
+        <v>31.40044183986506</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>2020</v>
       </c>
       <c r="B6">
-        <v>25.47873875018652</v>
+        <v>13.13545815524904</v>
       </c>
       <c r="C6">
-        <v>10.42943198530729</v>
+        <v>1.884662721329766</v>
       </c>
       <c r="D6">
-        <v>4.891835474149141</v>
+        <v>-2.543954192377085</v>
       </c>
       <c r="E6">
-        <v>1.888717060614336</v>
+        <v>-0.01020101463601319</v>
       </c>
       <c r="F6">
-        <v>0.6947808624723092</v>
+        <v>3.27917163095528</v>
       </c>
       <c r="G6">
-        <v>42.86088493493451</v>
+        <v>2.614637891135296</v>
       </c>
       <c r="H6">
-        <v>43.7960007079443</v>
-      </c>
-      <c r="I6">
-        <v>54.82826850747895</v>
+        <v>2.070901215336018</v>
+      </c>
+      <c r="O6">
+        <v>100.189466647408</v>
+      </c>
+      <c r="P6">
+        <v>62.45216820392798</v>
+      </c>
+      <c r="Q6">
+        <v>62.57378641046903</v>
+      </c>
+      <c r="R6">
+        <v>41.96490323430326</v>
+      </c>
+      <c r="S6">
+        <v>97.03708976452438</v>
+      </c>
+      <c r="T6">
+        <v>50.62803057275451</v>
+      </c>
+      <c r="U6">
+        <v>46.29784637022058</v>
+      </c>
+      <c r="V6">
+        <v>65.04085515890978</v>
+      </c>
+      <c r="W6">
+        <v>62.99311473998459</v>
+      </c>
+      <c r="X6">
+        <v>54.70487298513862</v>
+      </c>
+      <c r="Y6">
+        <v>79.55652786771266</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="7" spans="1:28">
+      <c r="A7" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>7.289169244858074</v>
+      </c>
+      <c r="C7">
+        <v>3.703248593128405</v>
+      </c>
+      <c r="D7">
+        <v>3.640885574933939</v>
+      </c>
+      <c r="E7">
+        <v>0.7448475009912414</v>
+      </c>
+      <c r="F7">
+        <v>4.458872165044347</v>
+      </c>
+      <c r="G7">
+        <v>-0.1605740498143882</v>
+      </c>
+      <c r="H7">
+        <v>2.934330735711188</v>
+      </c>
+      <c r="I7">
+        <v>2.904949497160758</v>
+      </c>
+      <c r="J7">
+        <v>1.745281938543597</v>
+      </c>
+      <c r="M7">
+        <v>1.176352579096807</v>
+      </c>
+      <c r="N7">
+        <v>3.573288350776527</v>
+      </c>
+      <c r="O7">
+        <v>33.07593394992827</v>
+      </c>
+      <c r="P7">
+        <v>11.92483193987597</v>
+      </c>
+      <c r="Q7">
+        <v>7.018865035317967</v>
+      </c>
+      <c r="R7">
+        <v>18.30280290253878</v>
+      </c>
+      <c r="S7">
+        <v>13.53642891885778</v>
+      </c>
+      <c r="T7">
+        <v>16.96939772536301</v>
+      </c>
+      <c r="U7">
+        <v>-5.932560999124171</v>
+      </c>
+      <c r="V7">
+        <v>25.66108291424798</v>
+      </c>
+      <c r="W7">
+        <v>9.247926503718906</v>
+      </c>
+      <c r="X7">
+        <v>26.59123258482634</v>
+      </c>
+      <c r="Y7">
+        <v>-12.0336958680461</v>
+      </c>
+      <c r="Z7">
+        <v>-5.207495894323467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B8">
+        <v>28.09708728017304</v>
+      </c>
+      <c r="C8">
+        <v>17.20807726075504</v>
+      </c>
+      <c r="D8">
+        <v>5.319999999999991</v>
+      </c>
+      <c r="E8">
+        <v>2.380000000000004</v>
+      </c>
+      <c r="F8">
+        <v>11.67</v>
+      </c>
+      <c r="G8">
+        <v>3.170000000000006</v>
+      </c>
+      <c r="H8">
+        <v>5.079999999999996</v>
+      </c>
+      <c r="I8">
+        <v>3.909999999999991</v>
+      </c>
+      <c r="J8">
+        <v>2.140000000000009</v>
+      </c>
+      <c r="K8">
+        <v>1.170000000000004</v>
+      </c>
+      <c r="L8">
+        <v>0.9800000000000031</v>
+      </c>
+      <c r="M8">
+        <v>1.659999999999995</v>
+      </c>
+      <c r="N8">
+        <v>4.216927524673508</v>
+      </c>
+      <c r="O8">
+        <v>107.6056338028169</v>
+      </c>
+      <c r="P8">
+        <v>23.17527970165156</v>
+      </c>
+      <c r="Q8">
+        <v>38.89310083396514</v>
+      </c>
+      <c r="R8">
+        <v>81.2785388127854</v>
+      </c>
+      <c r="S8">
+        <v>132.4535679374389</v>
+      </c>
+      <c r="T8">
+        <v>89.14572864321606</v>
+      </c>
+      <c r="U8">
+        <v>49.80000000000003</v>
+      </c>
+      <c r="V8">
+        <v>194.4</v>
+      </c>
+      <c r="W8">
+        <v>99.40357852882701</v>
+      </c>
+      <c r="X8">
+        <v>113.3</v>
+      </c>
+      <c r="Y8">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>-1.049999999999995</v>
+      </c>
+      <c r="AB8">
+        <v>-3.129999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>4.363555232530292</v>
+      </c>
+      <c r="C9">
+        <v>2.77656863512814</v>
+      </c>
+      <c r="D9">
+        <v>1.074632769298067</v>
+      </c>
+      <c r="E9">
+        <v>0.6563766867599075</v>
+      </c>
+      <c r="F9">
+        <v>4.065456392027955</v>
+      </c>
+      <c r="G9">
+        <v>1.434907075458458</v>
+      </c>
+      <c r="H9">
+        <v>2.498498222780099</v>
+      </c>
+      <c r="I9">
+        <v>2.283974563013969</v>
+      </c>
+      <c r="J9">
+        <v>1.903367014623836</v>
+      </c>
+      <c r="K9">
+        <v>2.777388748063614</v>
+      </c>
+      <c r="L9">
+        <v>4.74612567431818</v>
+      </c>
+      <c r="M9">
+        <v>1.249920358178658</v>
+      </c>
+      <c r="N9">
+        <v>3.680237217502369</v>
+      </c>
+      <c r="O9">
+        <v>13.42763190075271</v>
+      </c>
+      <c r="P9">
+        <v>3.660648034666347</v>
+      </c>
+      <c r="Q9">
+        <v>5.830346702508815</v>
+      </c>
+      <c r="R9">
+        <v>10.80536124772506</v>
+      </c>
+      <c r="S9">
+        <v>15.66110992470733</v>
+      </c>
+      <c r="T9">
+        <v>11.6202883459178</v>
+      </c>
+      <c r="U9">
+        <v>8.001757207833826</v>
+      </c>
+      <c r="V9">
+        <v>26.23359118729059</v>
+      </c>
+      <c r="W9">
+        <v>12.64173144810066</v>
+      </c>
+      <c r="X9">
+        <v>23.59906926673709</v>
+      </c>
+      <c r="Y9">
+        <v>22.26421070489901</v>
+      </c>
+      <c r="Z9">
+        <v>5.951515460370382</v>
+      </c>
+      <c r="AA9">
+        <v>-1.895467261589956</v>
+      </c>
+      <c r="AB9">
+        <v>-4.855595607523256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="B10">
+        <v>4.808098398429319</v>
+      </c>
+      <c r="C10">
+        <v>0.9778366480760504</v>
+      </c>
+      <c r="D10">
+        <v>3.075303720388945</v>
+      </c>
+      <c r="E10">
+        <v>2.515715335573779</v>
+      </c>
+      <c r="F10">
+        <v>0.7405385025642006</v>
+      </c>
+      <c r="G10">
+        <v>1.72093783162733</v>
+      </c>
+      <c r="H10">
+        <v>0.4204481086150589</v>
+      </c>
+      <c r="I10">
+        <v>0.7448582073320327</v>
+      </c>
+      <c r="J10">
+        <v>1.836258259742686</v>
+      </c>
+      <c r="K10">
+        <v>0.3751552166927632</v>
+      </c>
+      <c r="L10">
+        <v>0.3141707394072259</v>
+      </c>
+      <c r="M10">
+        <v>1.5590066869736</v>
+      </c>
+      <c r="N10">
+        <v>0.8197484847848405</v>
+      </c>
+      <c r="O10">
+        <v>25.58697768561814</v>
+      </c>
+      <c r="P10">
+        <v>28.12703180595548</v>
+      </c>
+      <c r="Q10">
+        <v>25.7076959999545</v>
+      </c>
+      <c r="R10">
+        <v>20.93200581322295</v>
+      </c>
+      <c r="S10">
+        <v>22.54532545673478</v>
+      </c>
+      <c r="T10">
+        <v>22.45122548446692</v>
+      </c>
+      <c r="U10">
+        <v>22.94819769463135</v>
+      </c>
+      <c r="V10">
+        <v>19.87477103962696</v>
+      </c>
+      <c r="W10">
+        <v>24.95986755998723</v>
+      </c>
+      <c r="X10">
+        <v>21.7678230504947</v>
+      </c>
+      <c r="Y10">
+        <v>24.93170631200115</v>
+      </c>
+      <c r="Z10">
+        <v>19.31997971782767</v>
+      </c>
+      <c r="AA10">
+        <v>16.12033666913394</v>
+      </c>
+      <c r="AB10">
+        <v>16.12606386713641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>6.583639484494391</v>
+      </c>
+      <c r="C11">
+        <v>2.742073693230505</v>
+      </c>
+      <c r="D11">
+        <v>7.272558828979064</v>
+      </c>
+      <c r="E11">
+        <v>3.845785898785018</v>
+      </c>
+      <c r="F11">
+        <v>1.829211385907591</v>
+      </c>
+      <c r="G11">
+        <v>2.387494078635728</v>
+      </c>
+      <c r="H11">
+        <v>0.8353808353808525</v>
+      </c>
+      <c r="I11">
+        <v>1.224060437984139</v>
+      </c>
+      <c r="J11">
+        <v>1.872332169188967</v>
+      </c>
+      <c r="K11">
+        <v>0.1289938479857193</v>
+      </c>
+      <c r="L11">
+        <v>0.01984520738241496</v>
+      </c>
+      <c r="M11">
+        <v>1.081825334382366</v>
+      </c>
+      <c r="N11">
+        <v>0.6160766673186093</v>
+      </c>
+      <c r="O11">
+        <v>43.45276872964169</v>
+      </c>
+      <c r="P11">
+        <v>55.51411827384124</v>
+      </c>
+      <c r="Q11">
+        <v>46.35669673837612</v>
+      </c>
+      <c r="R11">
+        <v>31.2807881773399</v>
+      </c>
+      <c r="S11">
+        <v>39.46917808219177</v>
+      </c>
+      <c r="T11">
+        <v>40.75743913435527</v>
+      </c>
+      <c r="U11">
+        <v>33.77001455604076</v>
+      </c>
+      <c r="V11">
+        <v>29.64190981432361</v>
+      </c>
+      <c r="W11">
+        <v>41.06280193236715</v>
+      </c>
+      <c r="X11">
+        <v>21.94951289089833</v>
+      </c>
+      <c r="Y11">
+        <v>31.04525614518723</v>
+      </c>
+      <c r="Z11">
+        <v>23.03984333810349</v>
+      </c>
+      <c r="AA11">
+        <v>9.67072365317483</v>
+      </c>
+      <c r="AB11">
+        <v>11.21076233183857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>202</v>
-      </c>
-      <c r="C8">
-        <v>206</v>
-      </c>
-      <c r="D8">
-        <v>193</v>
-      </c>
-      <c r="E8">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>43</v>
-      </c>
-      <c r="G8">
-        <v>206</v>
-      </c>
-      <c r="H8">
-        <v>206</v>
-      </c>
-      <c r="I8">
-        <v>211</v>
+    <row r="13" spans="1:28">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>665</v>
+      </c>
+      <c r="C13">
+        <v>501</v>
+      </c>
+      <c r="D13">
+        <v>611</v>
+      </c>
+      <c r="E13">
+        <v>610</v>
+      </c>
+      <c r="F13">
+        <v>249</v>
+      </c>
+      <c r="G13">
+        <v>106</v>
+      </c>
+      <c r="H13">
+        <v>219</v>
+      </c>
+      <c r="I13">
+        <v>151</v>
+      </c>
+      <c r="J13">
+        <v>99</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>86</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="O13">
+        <v>967</v>
+      </c>
+      <c r="P13">
+        <v>1642</v>
+      </c>
+      <c r="Q13">
+        <v>965</v>
+      </c>
+      <c r="R13">
+        <v>1134</v>
+      </c>
+      <c r="S13">
+        <v>845</v>
+      </c>
+      <c r="T13">
+        <v>778</v>
+      </c>
+      <c r="U13">
+        <v>954</v>
+      </c>
+      <c r="V13">
+        <v>834</v>
+      </c>
+      <c r="W13">
+        <v>820</v>
+      </c>
+      <c r="X13">
+        <v>281</v>
+      </c>
+      <c r="Y13">
+        <v>324</v>
+      </c>
+      <c r="Z13">
+        <v>324</v>
+      </c>
+      <c r="AA13">
+        <v>71</v>
+      </c>
+      <c r="AB13">
+        <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
+    <row r="14" spans="1:28">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>-0.06996932198074228</v>
-      </c>
-      <c r="C10">
-        <v>0.713242556180845</v>
-      </c>
-      <c r="D10">
-        <v>1.394795130857094</v>
-      </c>
-      <c r="E10">
-        <v>3.062050326259036</v>
-      </c>
-      <c r="F10">
-        <v>7.578594729470666</v>
-      </c>
-      <c r="G10">
-        <v>0.06802954134088421</v>
-      </c>
-      <c r="H10">
-        <v>-0.2084634208381838</v>
-      </c>
-      <c r="I10">
-        <v>1.733194606033717</v>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>0.5955567959645179</v>
+      </c>
+      <c r="C15">
+        <v>1.305369460935538</v>
+      </c>
+      <c r="D15">
+        <v>-0.1383126475011666</v>
+      </c>
+      <c r="E15">
+        <v>-0.3353279953863101</v>
+      </c>
+      <c r="F15">
+        <v>3.463844214344736</v>
+      </c>
+      <c r="G15">
+        <v>-0.03782190219490593</v>
+      </c>
+      <c r="H15">
+        <v>2.374278239101668</v>
+      </c>
+      <c r="I15">
+        <v>1.052373885270246</v>
+      </c>
+      <c r="J15">
+        <v>0.2196559481156778</v>
+      </c>
+      <c r="K15">
+        <v>3.404053271588398</v>
+      </c>
+      <c r="L15">
+        <v>10.32907384391238</v>
+      </c>
+      <c r="M15">
+        <v>-0.1603993132161948</v>
+      </c>
+      <c r="N15">
+        <v>2.659317249423894</v>
+      </c>
+      <c r="O15">
+        <v>0.4661584275978862</v>
+      </c>
+      <c r="P15">
+        <v>0.07681721867598545</v>
+      </c>
+      <c r="Q15">
+        <v>0.1684448835099081</v>
+      </c>
+      <c r="R15">
+        <v>0.444549694653598</v>
+      </c>
+      <c r="S15">
+        <v>0.6281145570698075</v>
+      </c>
+      <c r="T15">
+        <v>0.4507657399969358</v>
+      </c>
+      <c r="U15">
+        <v>0.2833219829353566</v>
+      </c>
+      <c r="V15">
+        <v>1.244465493032694</v>
+      </c>
+      <c r="W15">
+        <v>0.4463840516348154</v>
+      </c>
+      <c r="X15">
+        <v>1.015212577491855</v>
+      </c>
+      <c r="Y15">
+        <v>0.8328402060024015</v>
+      </c>
+      <c r="Z15">
+        <v>0.2304087522093779</v>
+      </c>
+      <c r="AA15">
+        <v>-0.2106312211809567</v>
+      </c>
+      <c r="AB15">
+        <v>-0.394117017530459</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>-0.05538393656207088</v>
-      </c>
-      <c r="C11">
-        <v>0.5812920567068737</v>
-      </c>
-      <c r="D11">
-        <v>1.325874588453381</v>
-      </c>
-      <c r="E11">
-        <v>3.658180902354113</v>
-      </c>
-      <c r="F11">
-        <v>11.17626754947119</v>
-      </c>
-      <c r="G11">
-        <v>0.06244875969156787</v>
-      </c>
-      <c r="H11">
-        <v>-0.1911652209554952</v>
-      </c>
-      <c r="I11">
-        <v>1.604574291101969</v>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>0.4349435817249994</v>
+      </c>
+      <c r="C16">
+        <v>0.4655316467660509</v>
+      </c>
+      <c r="D16">
+        <v>-0.05848854465810899</v>
+      </c>
+      <c r="E16">
+        <v>-0.2193573432603936</v>
+      </c>
+      <c r="F16">
+        <v>1.402416456701347</v>
+      </c>
+      <c r="G16">
+        <v>-0.02726297787550888</v>
+      </c>
+      <c r="H16">
+        <v>1.195118045197213</v>
+      </c>
+      <c r="I16">
+        <v>0.6404181500138678</v>
+      </c>
+      <c r="J16">
+        <v>0.2154240998746308</v>
+      </c>
+      <c r="K16">
+        <v>9.895039678458748</v>
+      </c>
+      <c r="L16">
+        <v>162.7521645716346</v>
+      </c>
+      <c r="M16">
+        <v>-0.2311431610612058</v>
+      </c>
+      <c r="N16">
+        <v>3.538331347387783</v>
+      </c>
+      <c r="O16">
+        <v>0.2744958445658662</v>
+      </c>
+      <c r="P16">
+        <v>0.03892062433462136</v>
+      </c>
+      <c r="Q16">
+        <v>0.09341341523116872</v>
+      </c>
+      <c r="R16">
+        <v>0.2974775266920309</v>
+      </c>
+      <c r="S16">
+        <v>0.3587881667158415</v>
+      </c>
+      <c r="T16">
+        <v>0.248304695544958</v>
+      </c>
+      <c r="U16">
+        <v>0.1925299127145187</v>
+      </c>
+      <c r="V16">
+        <v>0.8344100599865134</v>
+      </c>
+      <c r="W16">
+        <v>0.271333269783312</v>
+      </c>
+      <c r="X16">
+        <v>1.006809066591818</v>
+      </c>
+      <c r="Y16">
+        <v>0.6688346755563943</v>
+      </c>
+      <c r="Z16">
+        <v>0.1932086114555872</v>
+      </c>
+      <c r="AA16">
+        <v>-0.3511042475141463</v>
+      </c>
+      <c r="AB16">
+        <v>-0.566914071317558</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>-1.000415528508291</v>
-      </c>
-      <c r="C12">
-        <v>9.778615041431276</v>
-      </c>
-      <c r="D12">
-        <v>19.50033854202462</v>
-      </c>
-      <c r="E12">
-        <v>50.51201092679799</v>
-      </c>
-      <c r="F12">
-        <v>125.8665118014382</v>
-      </c>
-      <c r="G12">
-        <v>0.9421607766511378</v>
-      </c>
-      <c r="H12">
-        <v>-3.124403870693624</v>
-      </c>
-      <c r="I12">
-        <v>25.98364464543313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.0929015964451832</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>-0.01627055374023187</v>
-      </c>
-      <c r="E13">
-        <v>-0.01611111757509018</v>
-      </c>
-      <c r="F13">
-        <v>-0.03200744489697128</v>
-      </c>
-      <c r="G13">
-        <v>0.01724947923528115</v>
-      </c>
-      <c r="H13">
-        <v>0.07029632641529072</v>
-      </c>
-      <c r="I13">
-        <v>-0.2852204668101029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.07636490019841799</v>
-      </c>
-      <c r="C14">
-        <v>0.01627055374023187</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>-0.01594492023132452</v>
-      </c>
-      <c r="F14">
-        <v>-0.04506705527534053</v>
-      </c>
-      <c r="G14">
-        <v>0.01715009162425946</v>
-      </c>
-      <c r="H14">
-        <v>0.06493996157588218</v>
-      </c>
-      <c r="I14">
-        <v>-0.2687735584106136</v>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>8.983719761783686</v>
+      </c>
+      <c r="C17">
+        <v>25.89587611062996</v>
+      </c>
+      <c r="D17">
+        <v>-1.367317479299935</v>
+      </c>
+      <c r="E17">
+        <v>-3.339215630695973</v>
+      </c>
+      <c r="F17">
+        <v>53.6003835280373</v>
+      </c>
+      <c r="G17">
+        <v>-0.5453923157950462</v>
+      </c>
+      <c r="H17">
+        <v>31.78406446149964</v>
+      </c>
+      <c r="I17">
+        <v>13.4693742047959</v>
+      </c>
+      <c r="J17">
+        <v>3.17219217955813</v>
+      </c>
+      <c r="K17">
+        <v>57.37385597752343</v>
+      </c>
+      <c r="L17">
+        <v>317.2396528675841</v>
+      </c>
+      <c r="M17">
+        <v>-1.487603695175248</v>
+      </c>
+      <c r="N17">
+        <v>31.13266900128353</v>
+      </c>
+      <c r="O17">
+        <v>7.168221683160845</v>
+      </c>
+      <c r="P17">
+        <v>1.190117782569715</v>
+      </c>
+      <c r="Q17">
+        <v>2.586969524269463</v>
+      </c>
+      <c r="R17">
+        <v>6.487773474041217</v>
+      </c>
+      <c r="S17">
+        <v>9.525286223767438</v>
+      </c>
+      <c r="T17">
+        <v>6.957056209640879</v>
+      </c>
+      <c r="U17">
+        <v>4.344255237235701</v>
+      </c>
+      <c r="V17">
+        <v>20.47482094902328</v>
+      </c>
+      <c r="W17">
+        <v>7.063486733524537</v>
+      </c>
+      <c r="X17">
+        <v>16.44148349799578</v>
+      </c>
+      <c r="Y17">
+        <v>12.36887537040057</v>
+      </c>
+      <c r="Z17">
+        <v>3.583913936960711</v>
+      </c>
+      <c r="AA17">
+        <v>-3.515376363812378</v>
+      </c>
+      <c r="AB17">
+        <v>-6.378630078028279</v>
       </c>
     </row>
   </sheetData>
